--- a/frontend/src/ModelosDoc/CURSO_ANTT_(1).xlsx
+++ b/frontend/src/ModelosDoc/CURSO_ANTT_(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saces\Dropbox\Projeto ANTT 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AR Theo Stracke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A469D3A-6C82-41EC-85C6-2E70B881543C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B005AC41-45D1-4582-8AD5-0F13067656EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EF" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>DATA APROV</t>
   </si>
@@ -64,13 +64,16 @@
   </si>
   <si>
     <t>CURSO</t>
+  </si>
+  <si>
+    <t>Rede Vellum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +93,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,38 +160,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -511,29 +501,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="A2:M2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -543,7 +533,7 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -574,79 +564,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
